--- a/spliced/walkingToRunning/2023-03-24_09-59-26/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_09-59-26/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.373939958640504</v>
+        <v>2.993003823075968</v>
       </c>
       <c r="D2" t="n">
-        <v>-2.803763614382066</v>
+        <v>3.121233616556498</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.173938683101112</v>
+        <v>-0.8490933929171138</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9724532961845398</v>
+        <v>2.092578887939453</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3452788293361664</v>
+        <v>-8.521716117858887</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.3163169622421264</v>
+        <v>1.690641283988953</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.315333305086406</v>
+        <v>-4.831494113377142</v>
       </c>
       <c r="D3" t="n">
-        <v>-4.06512080941881</v>
+        <v>-9.479980850219709</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.673323219163079</v>
+        <v>16.28942495073587</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3375556766986847</v>
+        <v>2.046772480010986</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2131860554218292</v>
+        <v>-4.874783515930176</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.5501425266265869</v>
+        <v>0.8943560719490051</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.294339724949432</v>
+        <v>-9.035116481781008</v>
       </c>
       <c r="D4" t="n">
-        <v>-5.421413966587609</v>
+        <v>-3.15880911350261</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.148212569100514</v>
+        <v>10.23342611789717</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.114399790763855</v>
+        <v>4.356798648834229</v>
       </c>
       <c r="G4" t="n">
-        <v>1.803892254829407</v>
+        <v>-5.594369411468506</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8357665538787842</v>
+        <v>-4.091081619262695</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.8399218440055944</v>
+        <v>7.237885883876157</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.577153750828322</v>
+        <v>-10.53579415593821</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.555277306692937</v>
+        <v>15.53679728507988</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.348757982254028</v>
+        <v>-5.464406967163086</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5069327354431152</v>
+        <v>3.147723197937012</v>
       </c>
       <c r="H5" t="n">
-        <v>3.028080701828003</v>
+        <v>2.375073671340942</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.04079060554504</v>
+        <v>-46.59491330555468</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.759801340103144</v>
+        <v>-20.57918526785712</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.139139270782471</v>
+        <v>-11.76733117784752</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.512808680534363</v>
+        <v>-6.766693115234375</v>
       </c>
       <c r="G6" t="n">
-        <v>1.678723573684692</v>
+        <v>7.695337295532227</v>
       </c>
       <c r="H6" t="n">
-        <v>1.33963668346405</v>
+        <v>7.492071628570557</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.878040352889391</v>
+        <v>-38.6563062940324</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.038073178700042</v>
+        <v>-8.040147893769365</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.935944042886998</v>
+        <v>-22.76833855765205</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.064332365989685</v>
+        <v>3.930692672729492</v>
       </c>
       <c r="G7" t="n">
-        <v>0.967659592628479</v>
+        <v>9.625063896179199</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6690526604652405</v>
+        <v>-5.505752563476562</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>6.905984619685584</v>
+        <v>-17.68361431530541</v>
       </c>
       <c r="D8" t="n">
-        <v>-4.326261615753164</v>
+        <v>-12.95902962642049</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.109314686911449</v>
+        <v>-10.52790222508571</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3016029894351959</v>
+        <v>3.03800106048584</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1306280493736267</v>
+        <v>-1.461676001548767</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.0697082430124282</v>
+        <v>0.6908905506134033</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.805211918694661</v>
+        <v>-13.64767029626039</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.168965101242077</v>
+        <v>-8.337594250270474</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.4999499320984389</v>
+        <v>4.581750222614684</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.085921049118042</v>
+        <v>11.57449817657471</v>
       </c>
       <c r="G9" t="n">
-        <v>1.597230911254883</v>
+        <v>-5.450558662414551</v>
       </c>
       <c r="H9" t="n">
-        <v>1.683184385299683</v>
+        <v>-0.0244345031678676</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.490708228519988</v>
+        <v>12.93104904038545</v>
       </c>
       <c r="D10" t="n">
-        <v>6.831392199652511</v>
+        <v>0.6822976725441974</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.942101519448406</v>
+        <v>10.89643403462002</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.363388329744339</v>
+        <v>-4.411925792694092</v>
       </c>
       <c r="G10" t="n">
-        <v>3.294729709625244</v>
+        <v>2.68752908706665</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.443650007247925</v>
+        <v>3.053647041320801</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.993003823075968</v>
+        <v>-0.9200370788569145</v>
       </c>
       <c r="D11" t="n">
-        <v>3.121233616556498</v>
+        <v>-13.92125396728488</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.8490933929171138</v>
+        <v>-0.9832572937009605</v>
       </c>
       <c r="F11" t="n">
-        <v>2.092578887939453</v>
+        <v>-4.802345275878906</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.521716117858887</v>
+        <v>4.841493606567383</v>
       </c>
       <c r="H11" t="n">
-        <v>1.690641283988953</v>
+        <v>2.432597875595093</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.831494113377142</v>
+        <v>-8.313682734966347</v>
       </c>
       <c r="D12" t="n">
-        <v>-9.479980850219709</v>
+        <v>-9.559037576615895</v>
       </c>
       <c r="E12" t="n">
-        <v>16.28942495073587</v>
+        <v>-17.89249617712833</v>
       </c>
       <c r="F12" t="n">
-        <v>2.046772480010986</v>
+        <v>-2.648380517959595</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.874783515930176</v>
+        <v>16.29841232299805</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8943560719490051</v>
+        <v>-2.319014072418213</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-9.035116481781008</v>
+        <v>-8.376615575381617</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.15880911350261</v>
+        <v>-8.225071150490136</v>
       </c>
       <c r="E13" t="n">
-        <v>10.23342611789717</v>
+        <v>-15.93280724116742</v>
       </c>
       <c r="F13" t="n">
-        <v>4.356798648834229</v>
+        <v>-0.7825698852539062</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.594369411468506</v>
+        <v>-1.549027681350708</v>
       </c>
       <c r="H13" t="n">
-        <v>-4.091081619262695</v>
+        <v>1.645367503166199</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.237885883876157</v>
+        <v>0.8738524981906739</v>
       </c>
       <c r="D14" t="n">
-        <v>-10.53579415593821</v>
+        <v>-4.53215429782872</v>
       </c>
       <c r="E14" t="n">
-        <v>15.53679728507988</v>
+        <v>15.28993327277035</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.464406967163086</v>
+        <v>9.456219673156738</v>
       </c>
       <c r="G14" t="n">
-        <v>3.147723197937012</v>
+        <v>-6.493985176086426</v>
       </c>
       <c r="H14" t="n">
-        <v>2.375073671340942</v>
+        <v>-6.240252494812012</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-46.59491330555468</v>
+        <v>-0.01965822492311098</v>
       </c>
       <c r="D15" t="n">
-        <v>-20.57918526785712</v>
+        <v>16.21388537543142</v>
       </c>
       <c r="E15" t="n">
-        <v>-11.76733117784752</v>
+        <v>17.33802195957751</v>
       </c>
       <c r="F15" t="n">
-        <v>-6.766693115234375</v>
+        <v>3.910985231399536</v>
       </c>
       <c r="G15" t="n">
-        <v>7.695337295532227</v>
+        <v>0.8456867933273315</v>
       </c>
       <c r="H15" t="n">
-        <v>7.492071628570557</v>
+        <v>-5.051949977874756</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-38.6563062940324</v>
+        <v>-10.3103993143354</v>
       </c>
       <c r="D16" t="n">
-        <v>-8.040147893769365</v>
+        <v>-31.18352238791278</v>
       </c>
       <c r="E16" t="n">
-        <v>-22.76833855765205</v>
+        <v>18.67163455826883</v>
       </c>
       <c r="F16" t="n">
-        <v>3.930692672729492</v>
+        <v>-2.794321775436401</v>
       </c>
       <c r="G16" t="n">
-        <v>9.625063896179199</v>
+        <v>-2.126400947570801</v>
       </c>
       <c r="H16" t="n">
-        <v>-5.505752563476562</v>
+        <v>-1.946171641349792</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-17.68361431530541</v>
+        <v>22.02176739828893</v>
       </c>
       <c r="D17" t="n">
-        <v>-12.95902962642049</v>
+        <v>-22.72049116407177</v>
       </c>
       <c r="E17" t="n">
-        <v>-10.52790222508571</v>
+        <v>-2.185512433732939</v>
       </c>
       <c r="F17" t="n">
-        <v>3.03800106048584</v>
+        <v>-14.5798749923706</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.461676001548767</v>
+        <v>-11.00378227233887</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6908905506134033</v>
+        <v>6.221210956573486</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-13.64767029626039</v>
+        <v>5.463320446014379</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.337594250270474</v>
+        <v>6.157036137580864</v>
       </c>
       <c r="E18" t="n">
-        <v>4.581750222614684</v>
+        <v>-27.94153518676758</v>
       </c>
       <c r="F18" t="n">
-        <v>11.57449817657471</v>
+        <v>5.833254814147949</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.450558662414551</v>
+        <v>-11.42988777160644</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0244345031678676</v>
+        <v>6.618554592132568</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>12.93104904038545</v>
+        <v>-37.06017020089279</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6822976725441974</v>
+        <v>-23.85922709873728</v>
       </c>
       <c r="E19" t="n">
-        <v>10.89643403462002</v>
+        <v>0.4766027178080634</v>
       </c>
       <c r="F19" t="n">
-        <v>-4.411925792694092</v>
+        <v>0.6635265946388245</v>
       </c>
       <c r="G19" t="n">
-        <v>2.68752908706665</v>
+        <v>-4.405001640319824</v>
       </c>
       <c r="H19" t="n">
-        <v>3.053647041320801</v>
+        <v>1.273590207099915</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.9200370788569145</v>
+        <v>-19.13142990640274</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.92125396728488</v>
+        <v>-10.62035506112288</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.9832572937009605</v>
+        <v>8.715779474803668</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.802345275878906</v>
+        <v>5.506218910217285</v>
       </c>
       <c r="G20" t="n">
-        <v>4.841493606567383</v>
+        <v>16.36765480041504</v>
       </c>
       <c r="H20" t="n">
-        <v>2.432597875595093</v>
+        <v>-1.815144062042236</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-8.313682734966347</v>
+        <v>6.810042284216134</v>
       </c>
       <c r="D21" t="n">
-        <v>-9.559037576615895</v>
+        <v>8.792214941978534</v>
       </c>
       <c r="E21" t="n">
-        <v>-17.89249617712833</v>
+        <v>-5.953527409689759</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.648380517959595</v>
+        <v>-1.695501565933228</v>
       </c>
       <c r="G21" t="n">
-        <v>16.29841232299805</v>
+        <v>-2.446512937545776</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.319014072418213</v>
+        <v>2.133258581161499</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.03172696658525354</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-6.182636371680525</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-11.13081671851015</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-4.14081621170044</v>
+      </c>
+      <c r="G22" t="n">
+        <v>5.169595241546631</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.407280921936035</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12.65357358115054</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-1.313164901733439</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.5251411982945</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-2.688860654830933</v>
+      </c>
+      <c r="G23" t="n">
+        <v>10.50284194946289</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-1.326720356941223</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>8.714159175328177</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-9.301818609237403</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-17.37430092947822</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-1.443033814430237</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10.46609020233154</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.833072185516357</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.424608945846559</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-50.41501617431641</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.802897453308105</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.430516958236694</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.983938932418823</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-5.8599534034729</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.029158597333116</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-28.14689919608023</v>
+      </c>
+      <c r="E26" t="n">
+        <v>5.423780044487627</v>
+      </c>
+      <c r="F26" t="n">
+        <v>3.719237804412842</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.893374443054199</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-7.143064022064209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>23.23876049859135</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.670972211020553</v>
+      </c>
+      <c r="E27" t="n">
+        <v>3.751934364863664</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.8805742263793945</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.7974836230278015</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.437640905380249</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>12.21474557604104</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-7.668160905156817</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.514941801343662</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-4.217514991760254</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.791641712188721</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.048105716705322</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.01306713649177</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.441266550336438</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-15.73728098188129</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-1.25075364112854</v>
+      </c>
+      <c r="G29" t="n">
+        <v>12.15346908569336</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-1.156278014183044</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.6987579890658431</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-8.856165681566392</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-19.26768711635043</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-1.032907009124756</v>
+      </c>
+      <c r="G30" t="n">
+        <v>9.82000732421875</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-6.767558574676514</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.89904033115963</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-34.02156884329665</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7.39472787039573</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.240667581558228</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-12.29328536987305</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-4.838364601135254</v>
       </c>
     </row>
   </sheetData>
